--- a/results/input_sweep_r17/h2000_M0.25_R1250km_PL1000kg/ReqPowDATA.xlsx
+++ b/results/input_sweep_r17/h2000_M0.25_R1250km_PL1000kg/ReqPowDATA.xlsx
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>73.60953440215428</v>
+        <v>73.11316322747271</v>
       </c>
       <c r="F2" t="n">
-        <v>73.60953440215428</v>
+        <v>73.11316322747271</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>147.2190688043086</v>
+        <v>146.2263264549454</v>
       </c>
       <c r="F3" t="n">
-        <v>147.2190688043086</v>
+        <v>146.2263264549454</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1426.705475556053</v>
+        <v>1417.084701744975</v>
       </c>
       <c r="F4" t="n">
-        <v>1072.363248160691</v>
+        <v>1065.132436035129</v>
       </c>
       <c r="G4" t="n">
-        <v>354.3422273953624</v>
+        <v>351.952265709846</v>
       </c>
     </row>
     <row r="5">
@@ -561,13 +561,13 @@
         <v>5.047445992327883</v>
       </c>
       <c r="E5" t="n">
-        <v>1472.190688043086</v>
+        <v>1462.263264549454</v>
       </c>
       <c r="F5" t="n">
-        <v>1106.59394959311</v>
+        <v>1099.132397027897</v>
       </c>
       <c r="G5" t="n">
-        <v>365.5967384499755</v>
+        <v>363.1308675215573</v>
       </c>
     </row>
     <row r="6">
@@ -586,10 +586,10 @@
         <v>232.5448697555975</v>
       </c>
       <c r="E6" t="n">
-        <v>584.8238311371568</v>
+        <v>580.8893070672733</v>
       </c>
       <c r="F6" t="n">
-        <v>584.8238311371568</v>
+        <v>580.8893070672733</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>584.8150929466352</v>
+        <v>464.7044956376068</v>
       </c>
       <c r="F7" t="n">
-        <v>584.8150929466352</v>
+        <v>464.7044956376068</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
